--- a/biology/Zoologie/Cerza/Cerza.xlsx
+++ b/biology/Zoologie/Cerza/Cerza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Cerza (Centre d'étude et de reproduction zoologique augeron), aussi appelé parc zoologique Cerza ou parc zoologique de Lisieux est un parc zoologique français situé en Normandie, dans le Calvados, sur la commune d'Hermival-les-Vaux près de Lisieux. Créé en 1986, il est la propriété de Thierry Jardin, un de ses fondateurs, qui est également directeur du parc.
-Il accueille diverses espèces animales sur 80 hectares[1].
-Entre 2004 et 2016, le parc a accueilli une moyenne annuelle de 293 494 visiteurs[2],[3],[4].
+Il accueille diverses espèces animales sur 80 hectares.
+Entre 2004 et 2016, le parc a accueilli une moyenne annuelle de 293 494 visiteurs.
 </t>
         </is>
       </c>
@@ -516,15 +528,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Création
+          <t>Création</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le Cerza est créé en mai 1986 par deux frères, Thierry et Patrick Jardin. Aujourd'hui, le parc est dirigé par Thierry Jardin, Patrick Jardin s'occupant du Parc des félins.
 En 2012, les fondateurs du Cerza ouvrent Biotropica, la plus grande serre zoologique de France avec 6000 m², près de Val-de-Reuil, sur la base de loisirs de Lery-Poses.
-[réf. souhaitée]
-Historique
-Certaines naissances rares y ont lieu comme ce fut le cas en janvier 2013, où pour la première fois en France, un rhinocéros indien a vu le jour. Depuis, d'autres naissances (dont trois lions en 2013 et 2015, deux pandas roux en 2013 et 2014) et un rhinocéros blanc en 2018 ont permis au Cerza d'assurer son rôle de sauvegarde et de reproduction des espèces.
-En 2018, le parc accueille deux ourses polaires dans l'un des enclos les plus grands d'Europe.
-En 2019, le parc s’agrandit de huit hectares avec la mise en place d'une seconde plaine africaine accessible via le Safari Train.
-</t>
+[réf. souhaitée]</t>
         </is>
       </c>
     </row>
@@ -549,13 +562,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Faune</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ouvert de février à novembre[1], le parc s’étend sur 80 hectares[1] et présente plus de 1500 animaux sauvages de 120 espèces différentes reflétant les 5 continents.
-Il dispose de deux circuits pédestres de visite, le parcours rouge et le parcours jaune, ainsi que d'un Safari Train et un cinéma 3D. Le Cerza a pour but la préservation de la faune sauvage et présente aux visiteurs des animaux souvent menacés d’extinction.
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines naissances rares y ont lieu comme ce fut le cas en janvier 2013, où pour la première fois en France, un rhinocéros indien a vu le jour. Depuis, d'autres naissances (dont trois lions en 2013 et 2015, deux pandas roux en 2013 et 2014) et un rhinocéros blanc en 2018 ont permis au Cerza d'assurer son rôle de sauvegarde et de reproduction des espèces.
+En 2018, le parc accueille deux ourses polaires dans l'un des enclos les plus grands d'Europe.
+En 2019, le parc s’agrandit de huit hectares avec la mise en place d'une seconde plaine africaine accessible via le Safari Train.
 </t>
         </is>
       </c>
@@ -581,14 +601,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Conservation</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc adhère à l'Association européenne des zoos et aquariums (EAZA)[5] depuis 1996, à l'Association mondiale des zoos et aquariums (WAZA) depuis 2003 et à l'Association française des parcs zoologiques (AFdPZ)[6] depuis 2003.
-Il participe également à une quarantaine de programmes d'élevage (approximativement 25 EEP et 15 ESB).
-La conservation a toujours été importante pour le Cerza, c'est pourquoi en plus de tous ces programmes il s'implique financièrement dans de nombreux programmes de terrain. Pour accroître cette participation, en 2000, Cerza Conservation est créée. Il s'agit d'une association loi de 1901 qui a pour but de mener, promouvoir et soutenir des actions dans la nature afin de protéger des animaux en voie de disparition. Cette association se pérennise grâce aux cotisations de ses membres, aux dons des visiteurs et aux donations régulières du Cerza.
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ouvert de février à novembre, le parc s’étend sur 80 hectares et présente plus de 1500 animaux sauvages de 120 espèces différentes reflétant les 5 continents.
+Il dispose de deux circuits pédestres de visite, le parcours rouge et le parcours jaune, ainsi que d'un Safari Train et un cinéma 3D. Le Cerza a pour but la préservation de la faune sauvage et présente aux visiteurs des animaux souvent menacés d’extinction.
 </t>
         </is>
       </c>
@@ -614,10 +635,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc adhère à l'Association européenne des zoos et aquariums (EAZA) depuis 1996, à l'Association mondiale des zoos et aquariums (WAZA) depuis 2003 et à l'Association française des parcs zoologiques (AFdPZ) depuis 2003.
+Il participe également à une quarantaine de programmes d'élevage (approximativement 25 EEP et 15 ESB).
+La conservation a toujours été importante pour le Cerza, c'est pourquoi en plus de tous ces programmes il s'implique financièrement dans de nombreux programmes de terrain. Pour accroître cette participation, en 2000, Cerza Conservation est créée. Il s'agit d'une association loi de 1901 qui a pour but de mener, promouvoir et soutenir des actions dans la nature afin de protéger des animaux en voie de disparition. Cette association se pérennise grâce aux cotisations de ses membres, aux dons des visiteurs et aux donations régulières du Cerza.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cerza</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cerza</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Services</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc est doté de plusieurs points de restauration :
@@ -632,33 +690,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Cerza</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cerza</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Fréquentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cerza connait une fréquentation assez stable depuis 2004, avec 293 494 visiteurs par an en moyenne[2],[3],[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cerza connait une fréquentation assez stable depuis 2004, avec 293 494 visiteurs par an en moyenne.
 </t>
         </is>
       </c>
